--- a/다이어트/다이어트 테이블명세(2021-05-12).xlsx
+++ b/다이어트/다이어트 테이블명세(2021-05-12).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7605" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7605" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="식품정보" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="141">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2432,7 +2432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:E11"/>
     </sheetView>
   </sheetViews>
@@ -3476,12 +3476,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -4509,12 +4509,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5568,12 +5568,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5589,7 +5589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:K3"/>
     </sheetView>
   </sheetViews>
@@ -5837,10 +5837,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5850,14 +5850,14 @@
     <col min="3" max="3" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>126</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -5867,8 +5867,14 @@
       <c r="C2" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -5878,8 +5884,14 @@
       <c r="C3" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
@@ -5889,8 +5901,14 @@
       <c r="C4" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>35</v>
       </c>
@@ -5900,8 +5918,14 @@
       <c r="C5" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
@@ -5911,8 +5935,14 @@
       <c r="C6" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>140</v>
       </c>
@@ -5922,8 +5952,14 @@
       <c r="C7" s="7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>128</v>
       </c>
@@ -5933,8 +5969,14 @@
       <c r="C8" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>129</v>
       </c>
@@ -5944,8 +5986,14 @@
       <c r="C9" s="7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>130</v>
       </c>
@@ -5955,8 +6003,14 @@
       <c r="C10" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>131</v>
       </c>
@@ -5966,8 +6020,14 @@
       <c r="C11" s="8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>132</v>
       </c>
@@ -5977,8 +6037,14 @@
       <c r="C12" s="8" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>133</v>
       </c>
@@ -5988,13 +6054,21 @@
       <c r="C13" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>72</v>
       </c>
@@ -6004,8 +6078,14 @@
       <c r="C15" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>73</v>
       </c>
@@ -6015,8 +6095,14 @@
       <c r="C16" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>74</v>
       </c>
@@ -6026,8 +6112,14 @@
       <c r="C17" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -6037,8 +6129,14 @@
       <c r="C18" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>28</v>
       </c>
@@ -6048,13 +6146,21 @@
       <c r="C19" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>93</v>
       </c>
@@ -6064,9 +6170,15 @@
       <c r="C21" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E21" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>106</v>
       </c>
@@ -6076,8 +6188,14 @@
       <c r="C23" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>107</v>
       </c>
@@ -6087,8 +6205,14 @@
       <c r="C24" s="7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E24" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>108</v>
       </c>
@@ -6098,8 +6222,14 @@
       <c r="C25" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E25" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>109</v>
       </c>
@@ -6108,6 +6238,12 @@
       </c>
       <c r="C26" s="7" t="s">
         <v>109</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
